--- a/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FDE157-ECF3-4FCC-A4DD-73B19D6EB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E674791-80CF-4CC0-84F6-C136D09BC55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52376ACB-3D44-4396-A9A6-25A1E69055C4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD30F5F-2844-4148-A28A-E63E296E8821}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="733">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>7,86%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,13 +101,13 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>8,57%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,7 +116,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,47%</t>
+    <t>84,45%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -131,10 +131,10 @@
     <t>96,0%</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,2071 +146,2098 @@
     <t>5,62%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
+    <t>95,47%</t>
+  </si>
+  <si>
     <t>97,65%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>93,52%</t>
+    <t>93,48%</t>
   </si>
 </sst>
 </file>
@@ -2622,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F02F59D-4022-4EB4-AADC-2CA2BB897074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C6261-D5F8-4A88-ABFC-634ABBD19F60}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3418,10 +3445,10 @@
         <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3430,13 +3457,13 @@
         <v>1754</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3445,13 +3472,13 @@
         <v>4347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3493,13 @@
         <v>52530</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -3481,10 +3508,10 @@
         <v>71500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>92</v>
@@ -3502,7 +3529,7 @@
         <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3585,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3570,13 +3597,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3585,13 +3612,13 @@
         <v>4365</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3600,13 +3627,13 @@
         <v>5233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3648,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3636,13 +3663,13 @@
         <v>2291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3651,13 +3678,13 @@
         <v>6573</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3699,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3687,13 +3714,13 @@
         <v>34589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -3702,13 +3729,13 @@
         <v>58787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3791,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3776,13 +3803,13 @@
         <v>849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3797,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3806,13 +3833,13 @@
         <v>849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3854,13 @@
         <v>955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3848,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3857,13 +3884,13 @@
         <v>955</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,10 +3905,10 @@
         <v>45392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3896,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>32</v>
@@ -3908,10 +3935,10 @@
         <v>115702</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -3970,7 +3997,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3982,13 +4009,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3997,13 +4024,13 @@
         <v>2917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4012,13 +4039,13 @@
         <v>3755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4060,13 @@
         <v>1884</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4048,13 +4075,13 @@
         <v>2021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4063,13 +4090,13 @@
         <v>3905</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4111,13 @@
         <v>103206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -4099,13 +4126,13 @@
         <v>112183</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -4114,13 +4141,13 @@
         <v>215389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,7 +4203,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4188,13 +4215,13 @@
         <v>945</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4203,13 +4230,13 @@
         <v>7540</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4218,13 +4245,13 @@
         <v>8485</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4266,13 @@
         <v>5418</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4254,13 +4281,13 @@
         <v>7792</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -4269,13 +4296,13 @@
         <v>13210</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4317,13 @@
         <v>105530</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -4305,13 +4332,13 @@
         <v>137893</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -4320,13 +4347,13 @@
         <v>243422</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4421,13 @@
         <v>7245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -4409,13 +4436,13 @@
         <v>19124</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -4424,13 +4451,13 @@
         <v>26369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4472,13 @@
         <v>18903</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -4460,13 +4487,13 @@
         <v>17765</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -4475,13 +4502,13 @@
         <v>36668</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4523,13 @@
         <v>476318</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H38" s="7">
         <v>626</v>
@@ -4511,13 +4538,13 @@
         <v>639952</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M38" s="7">
         <v>1121</v>
@@ -4526,13 +4553,13 @@
         <v>1116271</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4615,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4612,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F876C20-703D-4919-88FE-2230894532A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07402863-2510-4F78-AA43-7077FF846D37}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4629,7 +4656,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4734,39 +4761,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,39 +4806,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,39 +4851,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,39 +4896,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4945,13 @@
         <v>4194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4933,13 +4960,13 @@
         <v>6739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4948,13 +4975,13 @@
         <v>10934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4996,13 @@
         <v>9809</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4984,13 +5011,13 @@
         <v>9598</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4999,13 +5026,13 @@
         <v>19407</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5047,13 @@
         <v>65200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -5035,13 +5062,13 @@
         <v>85756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5050,13 +5077,13 @@
         <v>150955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5151,13 @@
         <v>3044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5139,13 +5166,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5154,13 +5181,13 @@
         <v>9601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5202,13 @@
         <v>4126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5190,13 +5217,13 @@
         <v>9513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5205,13 +5232,13 @@
         <v>13639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5253,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5241,13 +5268,13 @@
         <v>63898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -5256,13 +5283,13 @@
         <v>112470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5345,13 +5372,13 @@
         <v>4466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5360,13 +5387,13 @@
         <v>6476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5408,13 @@
         <v>6521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5396,13 +5423,13 @@
         <v>7483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5411,13 +5438,13 @@
         <v>14004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5459,13 @@
         <v>99777</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
@@ -5447,13 +5474,13 @@
         <v>122519</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -5462,13 +5489,13 @@
         <v>222297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,7 +5551,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5536,13 +5563,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5551,13 +5578,13 @@
         <v>3971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5566,13 +5593,13 @@
         <v>5128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5614,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5602,13 +5629,13 @@
         <v>1109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -5617,13 +5644,13 @@
         <v>3244</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5665,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5653,13 +5680,13 @@
         <v>44775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5668,13 +5695,13 @@
         <v>73095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5757,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5742,13 +5769,13 @@
         <v>4258</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5757,13 +5784,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5772,13 +5799,13 @@
         <v>7501</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5820,13 @@
         <v>6426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5808,13 +5835,13 @@
         <v>4374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5823,13 +5850,13 @@
         <v>10800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5871,13 @@
         <v>41072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5859,13 +5886,13 @@
         <v>62595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -5874,13 +5901,13 @@
         <v>103667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +5963,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5948,13 +5975,13 @@
         <v>3547</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5963,13 +5990,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5978,13 +6005,13 @@
         <v>6670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6026,13 @@
         <v>4093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6014,13 +6041,13 @@
         <v>8173</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>345</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6029,10 +6056,10 @@
         <v>12266</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>350</v>
@@ -6056,7 +6083,7 @@
         <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -6065,13 +6092,13 @@
         <v>130666</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>211</v>
@@ -6080,13 +6107,13 @@
         <v>235289</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,7 +6169,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6154,13 +6181,13 @@
         <v>1000</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6169,13 +6196,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6187,10 +6214,10 @@
         <v>42</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6232,13 @@
         <v>3352</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -6220,13 +6247,13 @@
         <v>5609</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>367</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6238,10 +6265,10 @@
         <v>75</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6283,13 @@
         <v>116401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H34" s="7">
         <v>143</v>
@@ -6271,13 +6298,13 @@
         <v>155512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M34" s="7">
         <v>245</v>
@@ -6286,13 +6313,13 @@
         <v>271913</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6387,13 @@
         <v>19209</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -6375,13 +6402,13 @@
         <v>31395</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>382</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -6390,13 +6417,13 @@
         <v>50604</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6438,13 @@
         <v>36462</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -6426,13 +6453,13 @@
         <v>45859</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -6441,13 +6468,13 @@
         <v>82321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>394</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6489,13 @@
         <v>503966</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="H38" s="7">
         <v>623</v>
@@ -6477,13 +6504,13 @@
         <v>665721</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M38" s="7">
         <v>1079</v>
@@ -6492,13 +6519,13 @@
         <v>1169687</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,7 +6581,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6578,7 +6605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745FEF6A-658A-47F9-9C71-247CC804DC40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110D57F6-1A83-48FB-B4B3-DDF3ACDB6257}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6595,7 +6622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6702,13 +6729,13 @@
         <v>4025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6717,13 +6744,13 @@
         <v>2163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6732,13 +6759,13 @@
         <v>6188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6780,13 @@
         <v>2542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6768,13 +6795,13 @@
         <v>8326</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6783,13 +6810,13 @@
         <v>10868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6831,13 @@
         <v>32329</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6819,13 +6846,13 @@
         <v>38901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -6834,13 +6861,13 @@
         <v>71231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>425</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,7 +6941,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6923,13 +6950,13 @@
         <v>2694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6938,13 +6965,13 @@
         <v>2694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6974,13 +7001,13 @@
         <v>2672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6989,13 +7016,13 @@
         <v>2672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,7 +7040,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7025,13 +7052,13 @@
         <v>109862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>439</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -7040,13 +7067,13 @@
         <v>197157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7141,13 @@
         <v>795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7129,13 +7156,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -7144,13 +7171,13 @@
         <v>5272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7192,13 @@
         <v>4519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -7180,13 +7207,13 @@
         <v>4091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -7195,13 +7222,13 @@
         <v>8610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7243,13 @@
         <v>58232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -7231,13 +7258,13 @@
         <v>71329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -7246,13 +7273,13 @@
         <v>129560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,13 +7347,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7341,7 +7368,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7350,13 +7377,13 @@
         <v>845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7404,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7386,13 +7413,13 @@
         <v>2571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7401,13 +7428,13 @@
         <v>2571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,10 +7449,10 @@
         <v>63867</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7437,10 +7464,10 @@
         <v>89003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7452,13 +7479,13 @@
         <v>152869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,7 +7541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7532,7 +7559,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7547,7 +7574,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7562,7 +7589,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7604,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7592,13 +7619,13 @@
         <v>4227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>344</v>
+        <v>485</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7607,13 +7634,13 @@
         <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,10 +7655,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7643,13 +7670,13 @@
         <v>46305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7658,13 +7685,13 @@
         <v>87586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,7 +7747,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7732,13 +7759,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7747,13 +7774,13 @@
         <v>1194</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7762,13 +7789,13 @@
         <v>3946</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7810,13 @@
         <v>1618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7798,13 +7825,13 @@
         <v>4972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>498</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7813,13 +7840,13 @@
         <v>6590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7861,13 @@
         <v>44076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7849,13 +7876,13 @@
         <v>61222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -7864,13 +7891,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,7 +7953,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7938,13 +7965,13 @@
         <v>1962</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7953,13 +7980,13 @@
         <v>4940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7968,13 +7995,13 @@
         <v>6902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +8016,13 @@
         <v>2842</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -8004,13 +8031,13 @@
         <v>9347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8019,13 +8046,13 @@
         <v>12189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8067,13 @@
         <v>107381</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -8055,13 +8082,13 @@
         <v>133338</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -8070,13 +8097,13 @@
         <v>240719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,7 +8159,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8150,7 +8177,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>534</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8165,7 +8192,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8180,7 +8207,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8222,13 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -8210,13 +8237,13 @@
         <v>5268</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -8225,13 +8252,13 @@
         <v>6134</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>390</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,10 +8273,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8261,13 +8288,13 @@
         <v>171029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>546</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M34" s="7">
         <v>278</v>
@@ -8276,13 +8303,13 @@
         <v>304331</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8377,13 @@
         <v>10378</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -8365,13 +8392,13 @@
         <v>15468</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -8380,13 +8407,13 @@
         <v>25847</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>346</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,13 +8428,13 @@
         <v>13187</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>438</v>
+        <v>559</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -8416,13 +8443,13 @@
         <v>41474</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>361</v>
+        <v>561</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -8431,13 +8458,13 @@
         <v>54661</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,13 +8479,13 @@
         <v>567762</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="H38" s="7">
         <v>609</v>
@@ -8467,13 +8494,13 @@
         <v>720989</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="M38" s="7">
         <v>1209</v>
@@ -8482,13 +8509,13 @@
         <v>1288751</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>332</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,7 +8571,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -8568,7 +8595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5858DA71-F649-459F-AF99-853577CB80EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDF2B63-310C-4351-A6AA-BE22AF7A4028}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8585,7 +8612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8713,7 +8740,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8728,7 +8755,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,7 +8776,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>576</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8758,13 +8785,13 @@
         <v>6248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -8773,13 +8800,13 @@
         <v>7877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>568</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>580</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8794,10 +8821,10 @@
         <v>50290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8809,13 +8836,13 @@
         <v>55971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>53</v>
+        <v>586</v>
       </c>
       <c r="M6" s="7">
         <v>203</v>
@@ -8824,13 +8851,13 @@
         <v>106262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8898,13 +8925,13 @@
         <v>943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>578</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -8913,13 +8940,13 @@
         <v>9098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8928,13 +8955,13 @@
         <v>10041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>594</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>595</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>582</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8949,13 +8976,13 @@
         <v>3860</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -8964,13 +8991,13 @@
         <v>12581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>585</v>
+        <v>340</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>598</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -8979,13 +9006,13 @@
         <v>16441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,13 +9027,13 @@
         <v>81511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -9015,13 +9042,13 @@
         <v>119678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="M10" s="7">
         <v>282</v>
@@ -9030,13 +9057,13 @@
         <v>201189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9104,13 +9131,13 @@
         <v>3989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>598</v>
+        <v>388</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>599</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9119,13 +9146,13 @@
         <v>3335</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>182</v>
+        <v>614</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>602</v>
+        <v>87</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -9134,13 +9161,13 @@
         <v>7323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,13 +9182,13 @@
         <v>2033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>606</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -9170,13 +9197,13 @@
         <v>4300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>619</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>608</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -9185,13 +9212,13 @@
         <v>6333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,13 +9233,13 @@
         <v>71579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -9221,13 +9248,13 @@
         <v>87316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -9236,13 +9263,13 @@
         <v>158895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9310,13 +9337,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9325,13 +9352,13 @@
         <v>3460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>621</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>632</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -9340,13 +9367,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>625</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9361,13 +9388,13 @@
         <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -9376,13 +9403,13 @@
         <v>2092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -9391,13 +9418,13 @@
         <v>2809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>639</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9412,10 +9439,10 @@
         <v>77507</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9427,13 +9454,13 @@
         <v>104903</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>645</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>646</v>
       </c>
       <c r="M18" s="7">
         <v>359</v>
@@ -9442,13 +9469,13 @@
         <v>182410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9504,7 +9531,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9522,7 +9549,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9531,13 +9558,13 @@
         <v>2114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9546,13 +9573,13 @@
         <v>2114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9567,13 +9594,13 @@
         <v>2833</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>653</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -9582,13 +9609,13 @@
         <v>5482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -9597,13 +9624,13 @@
         <v>8315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>644</v>
+        <v>394</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9618,13 +9645,13 @@
         <v>35498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -9633,13 +9660,13 @@
         <v>57884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -9648,13 +9675,13 @@
         <v>93383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9710,7 +9737,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9722,13 +9749,13 @@
         <v>1695</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>656</v>
+        <v>471</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>658</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -9737,13 +9764,13 @@
         <v>4778</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -9752,13 +9779,13 @@
         <v>6473</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9773,13 +9800,13 @@
         <v>2963</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -9788,13 +9815,13 @@
         <v>3571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>665</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>676</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>666</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -9803,13 +9830,13 @@
         <v>6534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>677</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9824,13 +9851,13 @@
         <v>58526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
@@ -9839,13 +9866,13 @@
         <v>61503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>672</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -9854,13 +9881,13 @@
         <v>120030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9916,7 +9943,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9934,7 +9961,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -9946,10 +9973,10 @@
         <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>690</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -9958,13 +9985,13 @@
         <v>3915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9985,7 +10012,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9994,13 +10021,13 @@
         <v>4086</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -10012,10 +10039,10 @@
         <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>683</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10033,7 +10060,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10045,13 +10072,13 @@
         <v>250842</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -10060,13 +10087,13 @@
         <v>380085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10122,7 +10149,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10140,7 +10167,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10155,7 +10182,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10170,7 +10197,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10191,7 +10218,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -10200,13 +10227,13 @@
         <v>6364</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>693</v>
+        <v>189</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>695</v>
+        <v>312</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -10215,13 +10242,13 @@
         <v>6364</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>697</v>
+        <v>537</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10239,7 +10266,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -10251,13 +10278,13 @@
         <v>215764</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="M34" s="7">
         <v>570</v>
@@ -10266,13 +10293,13 @@
         <v>385691</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>703</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>704</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10340,13 +10367,13 @@
         <v>7208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>706</v>
+        <v>550</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -10355,13 +10382,13 @@
         <v>26700</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
@@ -10370,13 +10397,13 @@
         <v>33907</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>663</v>
+        <v>717</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>710</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,13 +10418,13 @@
         <v>15632</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>720</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
@@ -10406,13 +10433,13 @@
         <v>44724</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M37" s="7">
         <v>103</v>
@@ -10421,13 +10448,13 @@
         <v>60357</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>656</v>
+        <v>472</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10442,13 +10469,13 @@
         <v>674081</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="H38" s="7">
         <v>1581</v>
@@ -10457,13 +10484,13 @@
         <v>953863</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="M38" s="7">
         <v>2571</v>
@@ -10472,13 +10499,13 @@
         <v>1627944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>355</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10534,7 +10561,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E674791-80CF-4CC0-84F6-C136D09BC55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7016FF5E-573D-4788-9C90-DEF62DC988A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD30F5F-2844-4148-A28A-E63E296E8821}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CC2C42D-6D3D-4018-ABF2-FB5F6AE6B07B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="714">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,13 +101,13 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>18,01%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>7,94%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,7 +116,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,45%</t>
+    <t>81,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,16 +125,16 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,2070 +146,2016 @@
     <t>5,62%</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
@@ -2229,9 +2175,6 @@
   </si>
   <si>
     <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
   </si>
   <si>
     <t>94,53%</t>
@@ -2649,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C6261-D5F8-4A88-ABFC-634ABBD19F60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499448A-688B-4D8E-A893-5A85F17B1564}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3251,13 +3194,13 @@
         <v>1015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3266,13 +3209,13 @@
         <v>1964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,10 +3230,10 @@
         <v>49991</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3302,10 +3245,10 @@
         <v>82506</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3317,10 +3260,10 @@
         <v>132497</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3379,7 +3322,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3397,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3406,13 +3349,13 @@
         <v>1059</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3421,13 +3364,13 @@
         <v>1059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3385,13 @@
         <v>2592</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3457,13 +3400,13 @@
         <v>1754</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3472,13 +3415,13 @@
         <v>4347</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3436,13 @@
         <v>52530</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>74</v>
@@ -3508,10 +3451,10 @@
         <v>71500</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>92</v>
@@ -4132,7 +4075,7 @@
         <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -4141,13 +4084,13 @@
         <v>215389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4146,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4215,13 +4158,13 @@
         <v>945</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4230,13 +4173,13 @@
         <v>7540</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4245,13 +4188,13 @@
         <v>8485</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4209,13 @@
         <v>5418</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4281,13 +4224,13 @@
         <v>7792</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -4296,13 +4239,13 @@
         <v>13210</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4260,13 @@
         <v>105530</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -4332,13 +4275,13 @@
         <v>137893</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -4347,13 +4290,13 @@
         <v>243422</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4364,13 @@
         <v>7245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -4436,13 +4379,13 @@
         <v>19124</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -4451,13 +4394,13 @@
         <v>26369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,10 +4415,10 @@
         <v>18903</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>196</v>
@@ -4490,10 +4433,10 @@
         <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -4502,13 +4445,13 @@
         <v>36668</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4466,13 @@
         <v>476318</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H38" s="7">
         <v>626</v>
@@ -4538,13 +4481,13 @@
         <v>639952</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M38" s="7">
         <v>1121</v>
@@ -4553,13 +4496,13 @@
         <v>1116271</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,7 +4558,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07402863-2510-4F78-AA43-7077FF846D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8220ADC-2906-4A04-B088-7916D9D763A4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4656,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4761,39 +4704,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,39 +4749,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,39 +4794,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,39 +4839,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4888,13 @@
         <v>4194</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4960,13 +4903,13 @@
         <v>6739</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4975,13 +4918,13 @@
         <v>10934</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4939,13 @@
         <v>9809</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5011,13 +4954,13 @@
         <v>9598</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -5026,13 +4969,13 @@
         <v>19407</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +4990,13 @@
         <v>65200</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -5062,13 +5005,13 @@
         <v>85756</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5077,13 +5020,13 @@
         <v>150955</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5094,13 @@
         <v>3044</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5166,13 +5109,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5181,13 +5124,13 @@
         <v>9601</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5145,13 @@
         <v>4126</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5217,13 +5160,13 @@
         <v>9513</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5232,13 +5175,13 @@
         <v>13639</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5196,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5268,13 +5211,13 @@
         <v>63898</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -5283,13 +5226,13 @@
         <v>112470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5288,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5363,7 +5306,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5372,13 +5315,13 @@
         <v>4466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5387,13 +5330,13 @@
         <v>6476</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5351,13 @@
         <v>6521</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5423,13 +5366,13 @@
         <v>7483</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5438,13 +5381,13 @@
         <v>14004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5402,13 @@
         <v>99777</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
@@ -5474,13 +5417,13 @@
         <v>122519</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -5635,7 +5578,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -5644,13 +5587,13 @@
         <v>3244</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5608,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5680,13 +5623,13 @@
         <v>44775</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5695,13 +5638,13 @@
         <v>73095</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5712,13 @@
         <v>4258</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5784,13 +5727,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5799,13 +5742,13 @@
         <v>7501</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5763,13 @@
         <v>6426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5835,13 +5778,13 @@
         <v>4374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5850,13 +5793,13 @@
         <v>10800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5814,13 @@
         <v>41072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5886,13 +5829,13 @@
         <v>62595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -5901,13 +5844,13 @@
         <v>103667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5918,13 @@
         <v>3547</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5990,13 +5933,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6008,10 +5951,10 @@
         <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +5969,13 @@
         <v>4093</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6041,13 +5984,13 @@
         <v>8173</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6056,13 +5999,13 @@
         <v>12266</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6020,13 @@
         <v>104622</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -6092,13 +6035,13 @@
         <v>130666</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>211</v>
@@ -6107,13 +6050,13 @@
         <v>235289</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6112,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6181,13 +6124,13 @@
         <v>1000</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6196,13 +6139,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6214,10 +6157,10 @@
         <v>42</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,10 +6175,10 @@
         <v>3352</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>367</v>
@@ -6250,10 +6193,10 @@
         <v>368</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6262,13 +6205,13 @@
         <v>8961</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6226,13 @@
         <v>116401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H34" s="7">
         <v>143</v>
@@ -6298,13 +6241,13 @@
         <v>155512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M34" s="7">
         <v>245</v>
@@ -6313,13 +6256,13 @@
         <v>271913</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6330,13 @@
         <v>19209</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -6402,10 +6345,10 @@
         <v>31395</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>385</v>
@@ -6420,10 +6363,10 @@
         <v>386</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>388</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6381,13 @@
         <v>36462</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -6453,13 +6396,13 @@
         <v>45859</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>393</v>
+        <v>131</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -6468,13 +6411,13 @@
         <v>82321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6432,13 @@
         <v>503966</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H38" s="7">
         <v>623</v>
@@ -6504,13 +6447,13 @@
         <v>665721</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M38" s="7">
         <v>1079</v>
@@ -6519,13 +6462,13 @@
         <v>1169687</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6524,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6605,7 +6548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110D57F6-1A83-48FB-B4B3-DDF3ACDB6257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B1F8ED-EB25-4B57-9582-52CEDACB22DC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6622,7 +6565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6729,13 +6672,13 @@
         <v>4025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>404</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6744,13 +6687,13 @@
         <v>2163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>409</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6759,13 +6702,13 @@
         <v>6188</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6723,13 @@
         <v>2542</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6795,13 +6738,13 @@
         <v>8326</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6810,13 +6753,13 @@
         <v>10868</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6774,13 @@
         <v>32329</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6846,28 +6789,28 @@
         <v>38901</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>71231</v>
+        <v>71230</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,7 +6852,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6941,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6965,13 +6908,13 @@
         <v>2694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>432</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,7 +6935,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -7001,13 +6944,13 @@
         <v>2672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -7016,13 +6959,13 @@
         <v>2672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,7 +6983,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7052,13 +6995,13 @@
         <v>109862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -7067,13 +7010,13 @@
         <v>197157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7084,13 @@
         <v>795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7156,13 +7099,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -7171,13 +7114,13 @@
         <v>5272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>450</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7135,13 @@
         <v>4519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>453</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -7207,13 +7150,13 @@
         <v>4091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -7222,13 +7165,13 @@
         <v>8610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7186,13 @@
         <v>58232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -7258,13 +7201,13 @@
         <v>71329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -7273,13 +7216,13 @@
         <v>129560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,7 +7278,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7347,13 +7290,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7377,13 +7320,13 @@
         <v>845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,7 +7347,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7413,13 +7356,13 @@
         <v>2571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7428,13 +7371,13 @@
         <v>2571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,10 +7392,10 @@
         <v>63867</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7464,10 +7407,10 @@
         <v>89003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7479,13 +7422,13 @@
         <v>152869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7574,7 +7517,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7589,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7547,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7619,13 +7562,13 @@
         <v>4227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>486</v>
+        <v>216</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7634,13 +7577,13 @@
         <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>490</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,10 +7598,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7670,13 +7613,13 @@
         <v>46305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7685,13 +7628,13 @@
         <v>87586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7702,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7774,13 +7717,13 @@
         <v>1194</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7792,10 +7735,10 @@
         <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7753,13 @@
         <v>1618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7825,13 +7768,13 @@
         <v>4972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>498</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7840,13 +7783,13 @@
         <v>6590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7804,13 @@
         <v>44076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7876,13 +7819,13 @@
         <v>61222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -7891,13 +7834,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7980,13 +7923,13 @@
         <v>4940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>512</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>346</v>
+        <v>513</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>350</v>
+        <v>514</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7995,13 +7938,13 @@
         <v>6902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>214</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +7959,13 @@
         <v>2842</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -8031,13 +7974,13 @@
         <v>9347</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8046,13 +7989,13 @@
         <v>12189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>294</v>
+        <v>523</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>525</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8010,13 @@
         <v>107381</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -8082,13 +8025,13 @@
         <v>133338</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -8097,13 +8040,13 @@
         <v>240719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>533</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,7 +8102,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8177,7 +8120,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8192,7 +8135,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>535</v>
+        <v>369</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8207,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8222,13 +8165,13 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -8237,13 +8180,13 @@
         <v>5268</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -8252,13 +8195,13 @@
         <v>6134</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>543</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,10 +8216,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8288,13 +8231,13 @@
         <v>171029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M34" s="7">
         <v>278</v>
@@ -8303,13 +8246,13 @@
         <v>304331</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,13 +8320,13 @@
         <v>10378</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>551</v>
+        <v>45</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -8392,13 +8335,13 @@
         <v>15468</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>553</v>
+        <v>291</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -8407,13 +8350,13 @@
         <v>25847</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>558</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8428,13 +8371,13 @@
         <v>13187</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -8443,13 +8386,13 @@
         <v>41474</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -8458,13 +8401,13 @@
         <v>54661</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8479,13 +8422,13 @@
         <v>567762</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>567</v>
+        <v>180</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H38" s="7">
         <v>609</v>
@@ -8494,13 +8437,13 @@
         <v>720989</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="M38" s="7">
         <v>1209</v>
@@ -8509,13 +8452,13 @@
         <v>1288751</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,7 +8514,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8595,7 +8538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDF2B63-310C-4351-A6AA-BE22AF7A4028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EC87E9-BFE1-4115-A134-4AE3941260FF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8612,7 +8555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8740,7 +8683,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8755,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8713,13 @@
         <v>1630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8785,13 +8728,13 @@
         <v>6248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>578</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -8800,13 +8743,13 @@
         <v>7877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>571</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,10 +8764,10 @@
         <v>50290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8836,13 +8779,13 @@
         <v>55971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="M6" s="7">
         <v>203</v>
@@ -8851,13 +8794,13 @@
         <v>106262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8925,13 +8868,13 @@
         <v>943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -8940,13 +8883,13 @@
         <v>9098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8955,13 +8898,13 @@
         <v>10041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>594</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8976,13 +8919,13 @@
         <v>3860</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>596</v>
+        <v>131</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -8991,13 +8934,13 @@
         <v>12581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>588</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -9006,13 +8949,13 @@
         <v>16441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9027,13 +8970,13 @@
         <v>81511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -9042,13 +8985,13 @@
         <v>119678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="M10" s="7">
         <v>282</v>
@@ -9057,13 +9000,13 @@
         <v>201189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>609</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9131,13 +9074,13 @@
         <v>3989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>602</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9146,13 +9089,13 @@
         <v>3335</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>87</v>
+        <v>606</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -9161,13 +9104,13 @@
         <v>7323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>617</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9185,10 +9128,10 @@
         <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>609</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -9197,13 +9140,13 @@
         <v>4300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>619</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -9212,13 +9155,13 @@
         <v>6333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>621</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9233,10 +9176,10 @@
         <v>71579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -9248,13 +9191,13 @@
         <v>87316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -9263,13 +9206,13 @@
         <v>158895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>627</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,7 +9268,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9337,13 +9280,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9352,13 +9295,13 @@
         <v>3460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>621</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -9367,13 +9310,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>634</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9388,13 +9331,13 @@
         <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>626</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -9403,13 +9346,13 @@
         <v>2092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -9418,13 +9361,13 @@
         <v>2809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>639</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>640</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9439,10 +9382,10 @@
         <v>77507</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9454,13 +9397,13 @@
         <v>104903</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="M18" s="7">
         <v>359</v>
@@ -9469,13 +9412,13 @@
         <v>182410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>647</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>648</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9549,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9558,13 +9501,13 @@
         <v>2114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>638</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9573,13 +9516,13 @@
         <v>2114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9594,13 +9537,13 @@
         <v>2833</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>654</v>
+        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -9609,13 +9552,13 @@
         <v>5482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>656</v>
+        <v>434</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -9624,13 +9567,13 @@
         <v>8315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>394</v>
+        <v>514</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9645,13 +9588,13 @@
         <v>35498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -9660,13 +9603,13 @@
         <v>57884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>665</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -9675,13 +9618,13 @@
         <v>93383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9749,13 +9692,13 @@
         <v>1695</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>654</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>253</v>
+        <v>655</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -9764,13 +9707,13 @@
         <v>4778</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -9779,13 +9722,13 @@
         <v>6473</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>673</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>46</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9800,13 +9743,13 @@
         <v>2963</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -9815,13 +9758,13 @@
         <v>3571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>663</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -9830,13 +9773,13 @@
         <v>6534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>679</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,13 +9794,13 @@
         <v>58526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
@@ -9866,13 +9809,13 @@
         <v>61503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>671</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -9881,13 +9824,13 @@
         <v>120030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>685</v>
+        <v>68</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,7 +9904,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -9973,10 +9916,10 @@
         <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>690</v>
+        <v>555</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -9985,13 +9928,13 @@
         <v>3915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>691</v>
+        <v>341</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10006,7 +9949,7 @@
         <v>1597</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -10021,13 +9964,13 @@
         <v>4086</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -10036,13 +9979,13 @@
         <v>5683</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10057,10 +10000,10 @@
         <v>129243</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10072,13 +10015,13 @@
         <v>250842</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -10087,13 +10030,13 @@
         <v>380085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>701</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10149,7 +10092,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10182,7 +10125,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10197,7 +10140,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10227,13 +10170,13 @@
         <v>6364</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>189</v>
+        <v>690</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -10242,13 +10185,13 @@
         <v>6364</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10266,7 +10209,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -10278,13 +10221,13 @@
         <v>215764</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>711</v>
+        <v>92</v>
       </c>
       <c r="M34" s="7">
         <v>570</v>
@@ -10293,13 +10236,13 @@
         <v>385691</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,13 +10310,13 @@
         <v>7208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>713</v>
+        <v>515</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -10382,13 +10325,13 @@
         <v>26700</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>715</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
@@ -10397,13 +10340,13 @@
         <v>33907</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,13 +10361,13 @@
         <v>15632</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
@@ -10433,13 +10376,13 @@
         <v>44724</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>721</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>196</v>
+        <v>704</v>
       </c>
       <c r="M37" s="7">
         <v>103</v>
@@ -10448,13 +10391,13 @@
         <v>60357</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10469,13 +10412,13 @@
         <v>674081</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="H38" s="7">
         <v>1581</v>
@@ -10484,13 +10427,13 @@
         <v>953863</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>730</v>
+        <v>457</v>
       </c>
       <c r="M38" s="7">
         <v>2571</v>
@@ -10499,13 +10442,13 @@
         <v>1627944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10561,7 +10504,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7016FF5E-573D-4788-9C90-DEF62DC988A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCDA182-AC75-4414-9DA8-EA7F0FD848A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CC2C42D-6D3D-4018-ABF2-FB5F6AE6B07B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3696B0C-375E-429E-A7EC-4F1779B4604A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="724">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,2101 +86,2131 @@
     <t>2,98%</t>
   </si>
   <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
     <t>97,65%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>91,47%</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>93,48%</t>
+    <t>93,52%</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499448A-688B-4D8E-A893-5A85F17B1564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A056D308-9263-41EA-965D-70B69C0A5B7F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3194,13 +3224,13 @@
         <v>1015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3209,13 +3239,13 @@
         <v>1964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,10 +3260,10 @@
         <v>49991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3245,10 +3275,10 @@
         <v>82506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3260,10 +3290,10 @@
         <v>132497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3322,7 +3352,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3340,7 +3370,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3349,13 +3379,13 @@
         <v>1059</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3364,13 +3394,13 @@
         <v>1059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,10 +3415,10 @@
         <v>2592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>81</v>
@@ -3472,7 +3502,7 @@
         <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3558,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3570,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3555,13 +3585,13 @@
         <v>4365</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3570,13 +3600,13 @@
         <v>5233</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3621,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3606,13 +3636,13 @@
         <v>2291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3621,13 +3651,13 @@
         <v>6573</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3672,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3657,13 +3687,13 @@
         <v>34589</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -3672,13 +3702,13 @@
         <v>58787</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3764,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3746,13 +3776,13 @@
         <v>849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3767,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3776,13 +3806,13 @@
         <v>849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3827,13 @@
         <v>955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3818,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3827,13 +3857,13 @@
         <v>955</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,10 +3878,10 @@
         <v>45392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3866,7 +3896,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>32</v>
@@ -3878,10 +3908,10 @@
         <v>115702</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -3940,7 +3970,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3952,13 +3982,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3967,13 +3997,13 @@
         <v>2917</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3982,13 +4012,13 @@
         <v>3755</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4033,13 @@
         <v>1884</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4018,13 +4048,13 @@
         <v>2021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4033,13 +4063,13 @@
         <v>3905</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4084,13 @@
         <v>103206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -4069,13 +4099,13 @@
         <v>112183</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -4084,13 +4114,13 @@
         <v>215389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4176,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4158,13 +4188,13 @@
         <v>945</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4173,13 +4203,13 @@
         <v>7540</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4188,13 +4218,13 @@
         <v>8485</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4239,13 @@
         <v>5418</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4224,13 +4254,13 @@
         <v>7792</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -4239,13 +4269,13 @@
         <v>13210</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4290,13 @@
         <v>105530</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -4275,13 +4305,13 @@
         <v>137893</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -4290,10 +4320,10 @@
         <v>243422</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>24</v>
@@ -4364,13 +4394,13 @@
         <v>7245</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -4379,13 +4409,13 @@
         <v>19124</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -4394,13 +4424,13 @@
         <v>26369</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4445,13 @@
         <v>18903</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -4430,13 +4460,13 @@
         <v>17765</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -4445,13 +4475,13 @@
         <v>36668</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4496,13 @@
         <v>476318</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H38" s="7">
         <v>626</v>
@@ -4481,13 +4511,13 @@
         <v>639952</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>1121</v>
@@ -4496,13 +4526,13 @@
         <v>1116271</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4588,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8220ADC-2906-4A04-B088-7916D9D763A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92A0162-CC60-4643-9D67-FE5819C71C65}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4704,39 +4734,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,39 +4779,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,39 +4824,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,39 +4869,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4918,13 @@
         <v>4194</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4903,13 +4933,13 @@
         <v>6739</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4918,13 +4948,13 @@
         <v>10934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4969,13 @@
         <v>9809</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4954,13 +4984,13 @@
         <v>9598</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4969,13 +4999,13 @@
         <v>19407</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5020,13 @@
         <v>65200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -5005,13 +5035,13 @@
         <v>85756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5020,13 +5050,13 @@
         <v>150955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5124,13 @@
         <v>3044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5109,13 +5139,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5124,13 +5154,13 @@
         <v>9601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5175,13 @@
         <v>4126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5160,13 +5190,13 @@
         <v>9513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5175,13 +5205,13 @@
         <v>13639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5226,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5211,13 +5241,13 @@
         <v>63898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -5226,13 +5256,13 @@
         <v>112470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5318,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5306,7 +5336,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5315,13 +5345,13 @@
         <v>4466</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5330,13 +5360,13 @@
         <v>6476</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5381,13 @@
         <v>6521</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5366,13 +5396,13 @@
         <v>7483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5381,13 +5411,13 @@
         <v>14004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5432,13 @@
         <v>99777</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
@@ -5417,13 +5447,13 @@
         <v>122519</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -5432,13 +5462,13 @@
         <v>222297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,7 +5524,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5506,13 +5536,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5521,13 +5551,13 @@
         <v>3971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5536,13 +5566,13 @@
         <v>5128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5587,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5572,13 +5602,13 @@
         <v>1109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -5587,13 +5617,13 @@
         <v>3244</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5638,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5623,13 +5653,13 @@
         <v>44775</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5638,13 +5668,13 @@
         <v>73095</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5730,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5712,13 +5742,13 @@
         <v>4258</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5727,13 +5757,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5742,13 +5772,13 @@
         <v>7501</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5793,13 @@
         <v>6426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5778,13 +5808,13 @@
         <v>4374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5793,13 +5823,13 @@
         <v>10800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5844,13 @@
         <v>41072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5829,13 +5859,13 @@
         <v>62595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -5844,13 +5874,13 @@
         <v>103667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,7 +5936,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5918,10 +5948,10 @@
         <v>3547</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>337</v>
@@ -5948,7 +5978,7 @@
         <v>6670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>341</v>
@@ -5972,10 +6002,10 @@
         <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -5984,10 +6014,10 @@
         <v>8173</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>347</v>
@@ -6002,10 +6032,10 @@
         <v>348</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6050,13 @@
         <v>104622</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -6112,7 +6142,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6139,13 +6169,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6157,10 +6187,10 @@
         <v>42</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6205,13 @@
         <v>3352</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -6190,13 +6220,13 @@
         <v>5609</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6205,13 +6235,13 @@
         <v>8961</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6256,13 @@
         <v>116401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H34" s="7">
         <v>143</v>
@@ -6241,13 +6271,13 @@
         <v>155512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M34" s="7">
         <v>245</v>
@@ -6256,13 +6286,13 @@
         <v>271913</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6360,13 @@
         <v>19209</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -6345,13 +6375,13 @@
         <v>31395</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -6360,13 +6390,13 @@
         <v>50604</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6411,13 @@
         <v>36462</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -6399,10 +6429,10 @@
         <v>389</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -6411,13 +6441,13 @@
         <v>82321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6462,13 @@
         <v>503966</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>396</v>
+        <v>200</v>
       </c>
       <c r="H38" s="7">
         <v>623</v>
@@ -6524,7 +6554,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6548,7 +6578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B1F8ED-EB25-4B57-9582-52CEDACB22DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459401B-E5F0-4914-AE4A-660FC626E39B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6675,10 +6705,10 @@
         <v>404</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6687,7 +6717,7 @@
         <v>2163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>406</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -6702,13 +6732,13 @@
         <v>6188</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6753,13 @@
         <v>2542</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6738,13 +6768,13 @@
         <v>8326</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6753,13 +6783,13 @@
         <v>10868</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6804,13 @@
         <v>32329</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6789,28 +6819,28 @@
         <v>38901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>71230</v>
+        <v>71231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6882,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6884,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6893,13 +6923,13 @@
         <v>2694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6908,13 +6938,13 @@
         <v>2694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>428</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6965,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6944,13 +6974,13 @@
         <v>2672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>429</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6959,13 +6989,13 @@
         <v>2672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +7013,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -6995,13 +7025,13 @@
         <v>109862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -7010,13 +7040,13 @@
         <v>197157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7114,13 @@
         <v>795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7099,13 +7129,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -7114,13 +7144,13 @@
         <v>5272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7165,13 @@
         <v>4519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -7150,13 +7180,13 @@
         <v>4091</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -7165,13 +7195,13 @@
         <v>8610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7216,13 @@
         <v>58232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -7201,13 +7231,13 @@
         <v>71329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -7216,13 +7246,13 @@
         <v>129560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>460</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7308,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7290,7 +7320,7 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -7311,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7326,7 +7356,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,7 +7377,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7356,13 +7386,13 @@
         <v>2571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7371,13 +7401,13 @@
         <v>2571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,10 +7422,10 @@
         <v>63867</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7407,10 +7437,10 @@
         <v>89003</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7422,13 +7452,13 @@
         <v>152869</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,7 +7514,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7502,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7517,7 +7547,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7532,7 +7562,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,13 +7577,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7562,13 +7592,13 @@
         <v>4227</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7577,13 +7607,13 @@
         <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>481</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>482</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,10 +7628,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7613,13 +7643,13 @@
         <v>46305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7628,13 +7658,13 @@
         <v>87586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,7 +7720,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7702,13 +7732,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7717,7 +7747,7 @@
         <v>1194</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>492</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -7732,13 +7762,13 @@
         <v>3946</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7783,13 @@
         <v>1618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7783,10 +7813,10 @@
         <v>6590</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>501</v>
@@ -7825,7 +7855,7 @@
         <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -7834,13 +7864,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7896,7 +7926,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7908,13 +7938,13 @@
         <v>1962</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7923,13 +7953,13 @@
         <v>4940</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7938,13 +7968,13 @@
         <v>6902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,13 +7989,13 @@
         <v>2842</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -7974,13 +8004,13 @@
         <v>9347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>518</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -7989,13 +8019,13 @@
         <v>12189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>393</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +8040,13 @@
         <v>107381</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -8025,13 +8055,13 @@
         <v>133338</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -8040,13 +8070,13 @@
         <v>240719</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8102,7 +8132,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8120,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>530</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8135,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>369</v>
+        <v>530</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8186,7 +8216,7 @@
         <v>535</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -8195,13 +8225,13 @@
         <v>6134</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>537</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,10 +8264,10 @@
         <v>540</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M34" s="7">
         <v>278</v>
@@ -8246,13 +8276,13 @@
         <v>304331</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,13 +8350,13 @@
         <v>10378</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -8335,13 +8365,13 @@
         <v>15468</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>291</v>
+        <v>547</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>548</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>382</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -8350,13 +8380,13 @@
         <v>25847</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,13 +8401,13 @@
         <v>13187</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>551</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>552</v>
+        <v>438</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -8386,13 +8416,13 @@
         <v>41474</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>554</v>
+        <v>361</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -8401,13 +8431,13 @@
         <v>54661</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>44</v>
+        <v>554</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8422,13 +8452,13 @@
         <v>567762</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
+        <v>557</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H38" s="7">
         <v>609</v>
@@ -8437,13 +8467,13 @@
         <v>720989</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="M38" s="7">
         <v>1209</v>
@@ -8452,13 +8482,13 @@
         <v>1288751</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>566</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,7 +8544,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8538,7 +8568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EC87E9-BFE1-4115-A134-4AE3941260FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13DF3C-35D5-41F7-A162-1E5367E3D0C6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8555,7 +8585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8683,7 +8713,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8698,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,13 +8743,13 @@
         <v>1630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>568</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8728,13 +8758,13 @@
         <v>6248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>566</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -8743,13 +8773,13 @@
         <v>7877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>572</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,10 +8794,10 @@
         <v>50290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8779,13 +8809,13 @@
         <v>55971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>578</v>
+        <v>53</v>
       </c>
       <c r="M6" s="7">
         <v>203</v>
@@ -8794,13 +8824,13 @@
         <v>106262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8898,13 @@
         <v>943</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>578</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -8883,13 +8913,13 @@
         <v>9098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8898,13 +8928,13 @@
         <v>10041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>585</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8919,13 +8949,13 @@
         <v>3860</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>583</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -8934,13 +8964,13 @@
         <v>12581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -8949,13 +8979,13 @@
         <v>16441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8970,13 +9000,13 @@
         <v>81511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
@@ -8985,13 +9015,13 @@
         <v>119678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M10" s="7">
         <v>282</v>
@@ -9000,13 +9030,13 @@
         <v>201189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>596</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>601</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9074,13 +9104,13 @@
         <v>3989</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>599</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9089,13 +9119,13 @@
         <v>3335</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>605</v>
+        <v>182</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -9104,13 +9134,13 @@
         <v>7323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9125,13 +9155,13 @@
         <v>2033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -9140,13 +9170,13 @@
         <v>4300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>608</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -9155,13 +9185,13 @@
         <v>6333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9176,13 +9206,13 @@
         <v>71579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -9191,13 +9221,13 @@
         <v>87316</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -9206,7 +9236,7 @@
         <v>158895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>617</v>
@@ -9268,7 +9298,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9298,10 +9328,10 @@
         <v>621</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -9310,7 +9340,7 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>623</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>624</v>
@@ -9331,13 +9361,13 @@
         <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>626</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -9346,13 +9376,13 @@
         <v>2092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -9364,10 +9394,10 @@
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>628</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9382,10 +9412,10 @@
         <v>77507</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9397,13 +9427,13 @@
         <v>104903</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>634</v>
+        <v>453</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>635</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>359</v>
@@ -9412,13 +9442,13 @@
         <v>182410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>633</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>470</v>
+        <v>634</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9474,7 +9504,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9492,7 +9522,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9501,13 +9531,13 @@
         <v>2114</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9516,13 +9546,13 @@
         <v>2114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9540,10 +9570,10 @@
         <v>640</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -9555,7 +9585,7 @@
         <v>642</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>434</v>
+        <v>607</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>643</v>
@@ -9567,13 +9597,13 @@
         <v>8315</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>514</v>
+        <v>644</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9588,13 +9618,13 @@
         <v>35498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -9603,13 +9633,13 @@
         <v>57884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -9618,13 +9648,13 @@
         <v>93383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9680,7 +9710,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9692,13 +9722,13 @@
         <v>1695</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>535</v>
+        <v>657</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -9707,13 +9737,13 @@
         <v>4778</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -9722,13 +9752,13 @@
         <v>6473</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>661</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9743,13 +9773,13 @@
         <v>2963</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -9758,13 +9788,13 @@
         <v>3571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>664</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>666</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -9773,13 +9803,13 @@
         <v>6534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>665</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9794,13 +9824,13 @@
         <v>58526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
@@ -9809,13 +9839,13 @@
         <v>61503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -9824,13 +9854,13 @@
         <v>120030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>68</v>
+        <v>674</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9886,7 +9916,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9904,7 +9934,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -9916,10 +9946,10 @@
         <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -9928,13 +9958,13 @@
         <v>3915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>341</v>
+        <v>624</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>517</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9949,13 +9979,13 @@
         <v>1597</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9964,13 +9994,13 @@
         <v>4086</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>679</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -9979,13 +10009,13 @@
         <v>5683</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10000,10 +10030,10 @@
         <v>129243</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10015,13 +10045,13 @@
         <v>250842</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -10030,13 +10060,13 @@
         <v>380085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>688</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10092,7 +10122,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10110,7 +10140,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10125,7 +10155,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10140,7 +10170,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10161,7 +10191,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -10170,13 +10200,13 @@
         <v>6364</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>310</v>
+        <v>695</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -10185,13 +10215,13 @@
         <v>6364</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>532</v>
+        <v>697</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10209,7 +10239,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -10221,13 +10251,13 @@
         <v>215764</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>92</v>
+        <v>701</v>
       </c>
       <c r="M34" s="7">
         <v>570</v>
@@ -10236,13 +10266,13 @@
         <v>385691</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10310,13 +10340,13 @@
         <v>7208</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>515</v>
+        <v>705</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>462</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>546</v>
+        <v>706</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -10325,13 +10355,13 @@
         <v>26700</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>490</v>
+        <v>708</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
@@ -10340,13 +10370,13 @@
         <v>33907</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>61</v>
+        <v>710</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10361,13 +10391,13 @@
         <v>15632</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>702</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
@@ -10376,13 +10406,13 @@
         <v>44724</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>713</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>704</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>103</v>
@@ -10391,13 +10421,13 @@
         <v>60357</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>464</v>
+        <v>656</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10412,13 +10442,13 @@
         <v>674081</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="H38" s="7">
         <v>1581</v>
@@ -10427,13 +10457,13 @@
         <v>953863</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>457</v>
+        <v>721</v>
       </c>
       <c r="M38" s="7">
         <v>2571</v>
@@ -10442,13 +10472,13 @@
         <v>1627944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>616</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10504,7 +10534,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCDA182-AC75-4414-9DA8-EA7F0FD848A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{614F6526-BD70-42EE-8626-27C453E5432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3696B0C-375E-429E-A7EC-4F1779B4604A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B1051E89-5E2A-4380-A0FB-C6E5DE501B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="735">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -671,7 +671,67 @@
     <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -827,1390 +887,1363 @@
     <t>88,36%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
 </sst>
 </file>
@@ -2622,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A056D308-9263-41EA-965D-70B69C0A5B7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFB165D-FB60-4DD8-A6D0-AC1007DD862C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4612,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92A0162-CC60-4643-9D67-FE5819C71C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897BF16E-5FB2-4D4D-A3AA-A5E44DC86768}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4730,43 +4763,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1045</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>210</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2289</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3333</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,43 +4814,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2039</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2029</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4068</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,43 +4865,49 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>41198</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="I6" s="7">
+        <v>44576</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="N6" s="7">
+        <v>85774</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,43 +4916,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4975,13 @@
         <v>4194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4933,13 +4990,13 @@
         <v>6739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4948,13 +5005,13 @@
         <v>10934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5026,13 @@
         <v>9809</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4984,13 +5041,13 @@
         <v>9598</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4999,13 +5056,13 @@
         <v>19407</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5077,13 @@
         <v>65200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -5035,13 +5092,13 @@
         <v>85756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5050,13 +5107,13 @@
         <v>150955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5181,13 @@
         <v>3044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5139,13 +5196,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5154,13 +5211,13 @@
         <v>9601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5232,13 @@
         <v>4126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5190,13 +5247,13 @@
         <v>9513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5205,13 +5262,13 @@
         <v>13639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5283,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5241,13 +5298,13 @@
         <v>63898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -5256,13 +5313,13 @@
         <v>112470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,49 +5381,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2010</v>
+        <v>965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>4466</v>
+        <v>2177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>6476</v>
+        <v>3143</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +5432,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>6521</v>
+        <v>4482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>7483</v>
+        <v>5454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>14004</v>
+        <v>9936</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,49 +5483,49 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7">
-        <v>99777</v>
+        <v>58580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7">
-        <v>122519</v>
+        <v>77943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="N18" s="7">
-        <v>222297</v>
+        <v>136523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,10 +5534,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -5492,10 +5549,10 @@
         <v>32</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -5507,10 +5564,10 @@
         <v>32</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -5536,13 +5593,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5551,13 +5608,13 @@
         <v>3971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5566,13 +5623,13 @@
         <v>5128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5644,13 @@
         <v>2135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5602,13 +5659,13 @@
         <v>1109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -5617,13 +5674,13 @@
         <v>3244</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5695,13 @@
         <v>28320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5653,13 +5710,13 @@
         <v>44775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -5668,13 +5725,13 @@
         <v>73095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5799,13 @@
         <v>4258</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5757,13 +5814,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5772,13 +5829,13 @@
         <v>7501</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5850,13 @@
         <v>6426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5808,13 +5865,13 @@
         <v>4374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5823,13 +5880,13 @@
         <v>10800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5901,13 @@
         <v>41072</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5859,13 +5916,13 @@
         <v>62595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -5874,13 +5931,13 @@
         <v>103667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +6005,13 @@
         <v>3547</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5963,13 +6020,13 @@
         <v>3123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5981,10 +6038,10 @@
         <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6056,13 @@
         <v>4093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6014,13 +6071,13 @@
         <v>8173</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6029,13 +6086,13 @@
         <v>12266</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,10 +6107,10 @@
         <v>104622</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>155</v>
@@ -6065,13 +6122,13 @@
         <v>130666</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>211</v>
@@ -6080,13 +6137,13 @@
         <v>235289</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6211,13 @@
         <v>1000</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6169,13 +6226,13 @@
         <v>3295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6187,10 +6244,10 @@
         <v>42</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6262,13 @@
         <v>3352</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -6220,13 +6277,13 @@
         <v>5609</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -6238,10 +6295,10 @@
         <v>75</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6313,13 @@
         <v>116401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H34" s="7">
         <v>143</v>
@@ -6271,13 +6328,13 @@
         <v>155512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="M34" s="7">
         <v>245</v>
@@ -6286,13 +6343,13 @@
         <v>271913</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6417,13 @@
         <v>19209</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -6375,13 +6432,13 @@
         <v>31395</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -6390,13 +6447,13 @@
         <v>50604</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6468,13 @@
         <v>36462</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -6426,13 +6483,13 @@
         <v>45859</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -6441,13 +6498,13 @@
         <v>82321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,10 +6519,10 @@
         <v>503966</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>200</v>
@@ -6477,13 +6534,13 @@
         <v>665721</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="M38" s="7">
         <v>1079</v>
@@ -6492,13 +6549,13 @@
         <v>1169687</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459401B-E5F0-4914-AE4A-660FC626E39B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6A42E4-1BB6-4073-A05E-DDB5E26C3068}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6595,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6702,13 +6759,13 @@
         <v>4025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6717,13 +6774,13 @@
         <v>2163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6735,10 +6792,10 @@
         <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6810,13 @@
         <v>2542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6768,13 +6825,13 @@
         <v>8326</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6783,13 +6840,13 @@
         <v>10868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6861,13 @@
         <v>32329</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6819,10 +6876,10 @@
         <v>38901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>30</v>
@@ -6834,13 +6891,13 @@
         <v>71231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6923,13 +6980,13 @@
         <v>2694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6938,13 +6995,13 @@
         <v>2694</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6974,13 +7031,13 @@
         <v>2672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6989,13 +7046,13 @@
         <v>2672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,7 +7070,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>432</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -7025,13 +7082,13 @@
         <v>109862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>181</v>
@@ -7040,13 +7097,13 @@
         <v>197157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7171,13 @@
         <v>795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7129,13 +7186,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -7144,13 +7201,13 @@
         <v>5272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7222,13 @@
         <v>4519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -7180,13 +7237,13 @@
         <v>4091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -7195,13 +7252,13 @@
         <v>8610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7273,13 @@
         <v>58232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -7231,13 +7288,13 @@
         <v>71329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -7246,10 +7303,10 @@
         <v>129560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>179</v>
@@ -7320,13 +7377,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7350,13 +7407,13 @@
         <v>845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7434,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7386,13 +7443,13 @@
         <v>2571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7401,13 +7458,13 @@
         <v>2571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,10 +7479,10 @@
         <v>63867</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7437,10 +7494,10 @@
         <v>89003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7452,13 +7509,13 @@
         <v>152869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,7 +7589,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7547,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7562,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7634,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7592,13 +7649,13 @@
         <v>4227</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7607,13 +7664,13 @@
         <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,10 +7685,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7643,13 +7700,13 @@
         <v>46305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7658,13 +7715,13 @@
         <v>87586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7789,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7753,7 +7810,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7762,13 +7819,13 @@
         <v>3946</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7840,13 @@
         <v>1618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7798,13 +7855,13 @@
         <v>4972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -7816,10 +7873,10 @@
         <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7891,13 @@
         <v>44076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7849,13 +7906,13 @@
         <v>61222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -7864,13 +7921,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,7 +8001,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7953,13 +8010,13 @@
         <v>4940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7968,13 +8025,13 @@
         <v>6902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +8046,13 @@
         <v>2842</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -8004,13 +8061,13 @@
         <v>9347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8019,13 +8076,13 @@
         <v>12189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8097,13 @@
         <v>107381</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -8055,13 +8112,13 @@
         <v>133338</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="M30" s="7">
         <v>217</v>
@@ -8070,13 +8127,13 @@
         <v>240719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8180,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8252,13 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -8210,13 +8267,13 @@
         <v>5268</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -8225,13 +8282,13 @@
         <v>6134</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,10 +8303,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>539</v>
+        <v>300</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8261,13 +8318,13 @@
         <v>171029</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="M34" s="7">
         <v>278</v>
@@ -8276,13 +8333,13 @@
         <v>304331</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8407,13 @@
         <v>10378</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -8365,13 +8422,13 @@
         <v>15468</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="M36" s="7">
         <v>24</v>
@@ -8380,13 +8437,13 @@
         <v>25847</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,10 +8461,10 @@
         <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -8416,13 +8473,13 @@
         <v>41474</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -8431,13 +8488,13 @@
         <v>54661</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,13 +8509,13 @@
         <v>567762</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="H38" s="7">
         <v>609</v>
@@ -8467,13 +8524,13 @@
         <v>720989</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="M38" s="7">
         <v>1209</v>
@@ -8482,13 +8539,13 @@
         <v>1288751</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,7 +8625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13DF3C-35D5-41F7-A162-1E5367E3D0C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEFEB3D-594A-4E36-8CE3-1E61B9771607}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8585,7 +8642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8728,7 +8785,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,46 +8797,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1630</v>
+        <v>1784</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>582</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>6248</v>
+        <v>6272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>7877</v>
+        <v>8056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>568</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>586</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,13 +8848,13 @@
         <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>50290</v>
+        <v>54117</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8806,31 +8863,31 @@
         <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>55971</v>
+        <v>57137</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>53</v>
+        <v>592</v>
       </c>
       <c r="M6" s="7">
         <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>106262</v>
+        <v>111254</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,7 +8899,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -8857,7 +8914,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -8872,7 +8929,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -8895,46 +8952,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>943</v>
+        <v>884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>9098</v>
+        <v>7911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>10041</v>
+        <v>8794</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>601</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>602</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8946,46 +9003,46 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>3860</v>
+        <v>3556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>583</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>12581</v>
+        <v>11310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>606</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>16441</v>
+        <v>14866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>588</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8997,46 +9054,46 @@
         <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>81511</v>
+        <v>76269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="H10" s="7">
         <v>192</v>
       </c>
       <c r="I10" s="7">
-        <v>119678</v>
+        <v>109771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="M10" s="7">
         <v>282</v>
       </c>
       <c r="N10" s="7">
-        <v>201189</v>
+        <v>186040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9048,7 +9105,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
@@ -9063,7 +9120,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
@@ -9078,7 +9135,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -9101,46 +9158,46 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3989</v>
+        <v>3713</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>598</v>
+        <v>485</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3335</v>
+        <v>3028</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>182</v>
+        <v>621</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>7323</v>
+        <v>6741</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>605</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9152,46 +9209,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2033</v>
+        <v>1925</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>624</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4300</v>
+        <v>3843</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>626</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>6333</v>
+        <v>5769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>609</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>628</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9203,46 +9260,46 @@
         <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>71579</v>
+        <v>67851</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>87316</v>
+        <v>80554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>158895</v>
+        <v>148405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>618</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9254,7 +9311,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -9269,7 +9326,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
@@ -9284,7 +9341,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -9307,46 +9364,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>3460</v>
+        <v>3229</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>4041</v>
+        <v>3781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>623</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>625</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9358,46 +9415,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2092</v>
+        <v>1966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>2809</v>
+        <v>2630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>643</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>628</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9409,13 +9466,13 @@
         <v>116</v>
       </c>
       <c r="D18" s="7">
-        <v>77507</v>
+        <v>73453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9424,31 +9481,31 @@
         <v>243</v>
       </c>
       <c r="I18" s="7">
-        <v>104903</v>
+        <v>98441</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>646</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>647</v>
       </c>
       <c r="M18" s="7">
         <v>359</v>
       </c>
       <c r="N18" s="7">
-        <v>182410</v>
+        <v>171893</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>633</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9460,7 +9517,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -9475,7 +9532,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -9490,7 +9547,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -9522,37 +9579,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2114</v>
+        <v>1824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>637</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2114</v>
+        <v>1824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>651</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,46 +9621,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>2833</v>
+        <v>2534</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>655</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>5482</v>
+        <v>4885</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
       </c>
       <c r="N21" s="7">
-        <v>8315</v>
+        <v>7419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>645</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9615,46 +9672,46 @@
         <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>35498</v>
+        <v>32282</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>647</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
       </c>
       <c r="I22" s="7">
-        <v>57884</v>
+        <v>52537</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
       </c>
       <c r="N22" s="7">
-        <v>93383</v>
+        <v>84819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9666,7 +9723,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>32</v>
@@ -9681,7 +9738,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
@@ -9696,7 +9753,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>32</v>
@@ -9719,46 +9776,46 @@
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>1695</v>
+        <v>1606</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>4778</v>
+        <v>4418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>658</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>6473</v>
+        <v>6024</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>661</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,46 +9827,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>2963</v>
+        <v>2819</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>3571</v>
+        <v>3344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>665</v>
+        <v>465</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>6534</v>
+        <v>6163</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,46 +9878,46 @@
         <v>124</v>
       </c>
       <c r="D26" s="7">
-        <v>58526</v>
+        <v>55836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="H26" s="7">
         <v>155</v>
       </c>
       <c r="I26" s="7">
-        <v>61503</v>
+        <v>57496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
       </c>
       <c r="N26" s="7">
-        <v>120030</v>
+        <v>113332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9872,7 +9929,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -9887,7 +9944,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>32</v>
@@ -9902,7 +9959,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>32</v>
@@ -9934,37 +9991,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>3915</v>
+        <v>3409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>42</v>
+        <v>690</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>678</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>599</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>3915</v>
+        <v>3409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,46 +10033,46 @@
         <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>1597</v>
+        <v>1478</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
+        <v>692</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>693</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>4086</v>
+        <v>3737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>681</v>
+        <v>586</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
       </c>
       <c r="N29" s="7">
-        <v>5683</v>
+        <v>5216</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>695</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,13 +10084,13 @@
         <v>166</v>
       </c>
       <c r="D30" s="7">
-        <v>129243</v>
+        <v>121776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -10042,31 +10099,31 @@
         <v>230</v>
       </c>
       <c r="I30" s="7">
-        <v>250842</v>
+        <v>332036</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>685</v>
+        <v>224</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
       </c>
       <c r="N30" s="7">
-        <v>380085</v>
+        <v>453811</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10078,7 +10135,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>32</v>
@@ -10093,7 +10150,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>32</v>
@@ -10108,7 +10165,7 @@
         <v>410</v>
       </c>
       <c r="N31" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -10155,7 +10212,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10170,7 +10227,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,31 +10254,31 @@
         <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>6364</v>
+        <v>4327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>694</v>
+        <v>529</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
       </c>
       <c r="N33" s="7">
-        <v>6364</v>
+        <v>4327</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10290,13 @@
         <v>235</v>
       </c>
       <c r="D34" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -10248,31 +10305,31 @@
         <v>335</v>
       </c>
       <c r="I34" s="7">
-        <v>215764</v>
+        <v>181612</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="M34" s="7">
         <v>570</v>
       </c>
       <c r="N34" s="7">
-        <v>385691</v>
+        <v>328692</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,7 +10341,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>32</v>
@@ -10299,7 +10356,7 @@
         <v>342</v>
       </c>
       <c r="I35" s="7">
-        <v>222128</v>
+        <v>185939</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>32</v>
@@ -10314,7 +10371,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392055</v>
+        <v>333019</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>32</v>
@@ -10337,46 +10394,46 @@
         <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>7208</v>
+        <v>6755</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>462</v>
+        <v>719</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>706</v>
+        <v>121</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
       </c>
       <c r="I36" s="7">
-        <v>26700</v>
+        <v>23818</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
       </c>
       <c r="N36" s="7">
-        <v>33907</v>
+        <v>30573</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>663</v>
+        <v>618</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>711</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10388,46 +10445,46 @@
         <v>25</v>
       </c>
       <c r="D37" s="7">
-        <v>15632</v>
+        <v>14760</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>188</v>
+        <v>723</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>712</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>724</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
       </c>
       <c r="I37" s="7">
-        <v>44724</v>
+        <v>39686</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>713</v>
+        <v>551</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>714</v>
+        <v>651</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>193</v>
+        <v>725</v>
       </c>
       <c r="M37" s="7">
         <v>103</v>
       </c>
       <c r="N37" s="7">
-        <v>60357</v>
+        <v>54445</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>716</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10439,46 +10496,46 @@
         <v>990</v>
       </c>
       <c r="D38" s="7">
-        <v>674081</v>
+        <v>628664</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H38" s="7">
         <v>1581</v>
       </c>
       <c r="I38" s="7">
-        <v>953863</v>
+        <v>969582</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>721</v>
+        <v>595</v>
       </c>
       <c r="M38" s="7">
         <v>2571</v>
       </c>
       <c r="N38" s="7">
-        <v>1627944</v>
+        <v>1598246</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>723</v>
+        <v>156</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>355</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10490,7 +10547,7 @@
         <v>1027</v>
       </c>
       <c r="D39" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>32</v>
@@ -10505,7 +10562,7 @@
         <v>1706</v>
       </c>
       <c r="I39" s="7">
-        <v>1025287</v>
+        <v>1033086</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>32</v>
@@ -10520,7 +10577,7 @@
         <v>2733</v>
       </c>
       <c r="N39" s="7">
-        <v>1722208</v>
+        <v>1683264</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>32</v>
